--- a/wikipedia_euro_2016_stats.xlsx
+++ b/wikipedia_euro_2016_stats.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25080" windowHeight="16060" tabRatio="500" activeTab="5"/>
@@ -1071,7 +1071,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -2287,7 +2290,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -2607,7 +2613,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>

--- a/wikipedia_euro_2016_stats.xlsx
+++ b/wikipedia_euro_2016_stats.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25080" windowHeight="16060" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25080" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="group_stage" sheetId="1" r:id="rId1"/>
@@ -1071,7 +1071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -3031,7 +3031,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>

--- a/wikipedia_euro_2016_stats.xlsx
+++ b/wikipedia_euro_2016_stats.xlsx
@@ -1080,9 +1080,9 @@
   <cols>
     <col min="1" max="1" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="35.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.33203125" style="1" bestFit="1" customWidth="1"/>

--- a/wikipedia_euro_2016_stats.xlsx
+++ b/wikipedia_euro_2016_stats.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25080" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25080" windowHeight="16060" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="group_stage" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="199">
   <si>
     <t>Day 23</t>
   </si>
@@ -618,6 +618,9 @@
   </si>
   <si>
     <t>avg_red_cards</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Switzerland</t>
   </si>
 </sst>
 </file>
@@ -1071,7 +1074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -2302,7 +2305,7 @@
     <col min="3" max="3" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27.1640625" style="1" bestFit="1" customWidth="1"/>
@@ -3031,7 +3034,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -4292,7 +4297,7 @@
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="11" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="B22" s="11">
         <v>4</v>
